--- a/label_editor.xlsx
+++ b/label_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\terrc\Desktop\git_repos\def_updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2136FC0A-E672-434B-AED6-6C63656DADCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D30E8B09-4D49-4D47-81A0-19FA85B82D0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="116" activeTab="120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="47" activeTab="47" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlCl__27Al-35Cl__YNAT" sheetId="1" r:id="rId1"/>
@@ -7780,7 +7780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-7800-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -39502,7 +39502,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2F00-000000000000}">
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -39584,10 +39586,10 @@
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">

--- a/label_editor.xlsx
+++ b/label_editor.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git_repos\def_updater\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECE32FE-F1C3-4675-9911-7FAA554F483F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67444EE0-A9C6-4C91-A652-6ABA7442AF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="48" activeTab="51" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="69" activeTab="73" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AlCl__27Al-35Cl__YNAT" sheetId="1" r:id="rId1"/>
@@ -237,7 +237,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11644" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11644" uniqueCount="675">
   <si>
     <t>Molecule: AlCl, File: 27Al-35Cl__YNAT.def</t>
   </si>
@@ -2259,6 +2259,9 @@
   </si>
   <si>
     <t>Molecule: ZrO, File: 96Zr-16O__ZorrO.def</t>
+  </si>
+  <si>
+    <t>I3 %2d</t>
   </si>
 </sst>
 </file>
@@ -43682,7 +43685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -48548,7 +48551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4900-000000000000}">
   <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -48618,19 +48623,19 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>674</v>
       </c>
       <c r="G3" t="s">
-        <v>99</v>
+        <v>674</v>
       </c>
       <c r="H3" t="s">
-        <v>99</v>
+        <v>674</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>674</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
+        <v>674</v>
       </c>
       <c r="K3" t="s">
         <v>76</v>
